--- a/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,92</t>
+          <t>-20,74; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,74</t>
+          <t>-9,77; 16,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,91</t>
+          <t>-13,18; 11,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,03</t>
+          <t>-11,71; 18,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,44</t>
+          <t>-19,26; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,85</t>
+          <t>-10,78; 22,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,61</t>
+          <t>-10,47; 7,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,62</t>
+          <t>-11,02; 7,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,47</t>
+          <t>-7,58; 14,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,07%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>-25,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 68,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 71,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 75,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 153,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 140,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 115,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 61,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 62,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 58,07</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,88</t>
+          <t>-4,22; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,77</t>
+          <t>-4,38; 2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,79</t>
+          <t>-4,09; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,75</t>
+          <t>-2,11; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,82</t>
+          <t>-2,62; 4,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,78</t>
+          <t>-3,05; 3,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,31</t>
+          <t>-2,34; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,29</t>
+          <t>-2,6; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,54</t>
+          <t>-2,6; 2,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,51%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75,77%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>148,85%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>197,98%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>229,96%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>119,76%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 177,95</t>
+          <t>-53,47; 68,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 64,19</t>
+          <t>-56,0; 71,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 248,91</t>
+          <t>-51,62; 75,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 674,95</t>
+          <t>-32,49; 153,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 907,62</t>
+          <t>-41,04; 140,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,53; 1083,6</t>
+          <t>-45,78; 115,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 176,29</t>
+          <t>-34,32; 61,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 165,02</t>
+          <t>-38,84; 62,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 292,45</t>
+          <t>-37,85; 58,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 0,0</t>
+          <t>-0,29; 8,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 16,49</t>
+          <t>-3,38; 4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 11,89</t>
+          <t>-1,55; 7,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 18,61</t>
+          <t>-6,51; 2,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 3,71</t>
+          <t>-4,76; 3,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 22,27</t>
+          <t>-4,21; 5,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 7,31</t>
+          <t>-1,79; 4,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 7,24</t>
+          <t>-2,57; 3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 14,0</t>
+          <t>-1,6; 4,94</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-38,15%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>-27,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>25,66%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 241,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,97; 139,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,53; 219,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,84; 64,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,12; 94,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,19; 125,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,04; 100,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,0; 69,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-23,5; 115,97</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>3,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,54</t>
+          <t>-2,43; 4,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,69</t>
+          <t>-4,73; 1,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,3</t>
+          <t>-0,34; 7,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,59</t>
+          <t>-0,1; 5,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,88</t>
+          <t>0,89; 6,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,26</t>
+          <t>1,04; 7,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,45</t>
+          <t>-0,26; 4,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,19</t>
+          <t>-0,96; 3,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,94</t>
+          <t>1,16; 6,54</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>-33,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-27,22%</t>
+          <t>148,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>197,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>229,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>119,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 241,82</t>
+          <t>-42,9; 177,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 139,66</t>
+          <t>-71,98; 64,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 219,68</t>
+          <t>-10,91; 248,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 64,74</t>
+          <t>-17,01; 674,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 94,83</t>
+          <t>6,91; 907,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 125,43</t>
+          <t>11,53; 1083,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 100,75</t>
+          <t>-13,05; 176,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 69,37</t>
+          <t>-24,84; 165,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 115,97</t>
+          <t>21,69; 292,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 0,0</t>
+          <t>-19,94; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 16,49</t>
+          <t>-10,02; 16,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 11,89</t>
+          <t>-13,26; 10,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 18,61</t>
+          <t>-12,09; 19,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 3,71</t>
+          <t>-21,97; 3,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 22,27</t>
+          <t>-13,6; 19,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 7,31</t>
+          <t>-10,52; 6,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 7,24</t>
+          <t>-9,98; 7,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 14,0</t>
+          <t>-8,56; 13,57</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 835,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,69</t>
+          <t>-1,57; 6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,42</t>
+          <t>-4,46; 2,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 6,42</t>
+          <t>-2,33; 6,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,58</t>
+          <t>-4,37; 5,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,86</t>
+          <t>-6,39; 2,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,32</t>
+          <t>-5,81; 2,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,92</t>
+          <t>-1,65; 4,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,19</t>
+          <t>-4,1; 1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,88</t>
+          <t>-3,33; 2,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 403,64</t>
+          <t>-44,8; 383,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,93; 192,58</t>
+          <t>-87,37; 165,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 364,83</t>
+          <t>-56,84; 409,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 192,65</t>
+          <t>-63,09; 199,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 143,28</t>
+          <t>-82,38; 105,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,81; 93,67</t>
+          <t>-77,96; 96,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 179,3</t>
+          <t>-33,55; 155,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,73; 48,06</t>
+          <t>-74,78; 40,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 116,41</t>
+          <t>-57,68; 97,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,92</t>
+          <t>-4,33; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,74</t>
+          <t>-4,38; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,91</t>
+          <t>-4,36; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,03</t>
+          <t>-2,31; 4,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,44</t>
+          <t>-2,9; 3,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,85</t>
+          <t>-3,22; 3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,61</t>
+          <t>-2,44; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,62</t>
+          <t>-2,64; 2,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,47</t>
+          <t>-2,71; 2,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 68,2</t>
+          <t>-53,88; 66,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 71,33</t>
+          <t>-57,2; 63,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 75,37</t>
+          <t>-56,8; 66,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 153,43</t>
+          <t>-37,94; 143,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 140,25</t>
+          <t>-43,46; 114,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 115,48</t>
+          <t>-48,27; 103,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 61,19</t>
+          <t>-34,5; 61,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 62,1</t>
+          <t>-39,73; 62,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 58,07</t>
+          <t>-39,17; 56,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,54</t>
+          <t>-0,32; 9,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,69</t>
+          <t>-2,82; 5,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,3</t>
+          <t>-1,85; 7,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,59</t>
+          <t>-5,88; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,88</t>
+          <t>-4,98; 3,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,26</t>
+          <t>-3,94; 5,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,45</t>
+          <t>-1,89; 4,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,19</t>
+          <t>-2,45; 3,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,94</t>
+          <t>-1,47; 5,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 241,82</t>
+          <t>-10,74; 258,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 139,66</t>
+          <t>-42,39; 194,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 219,68</t>
+          <t>-27,78; 210,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 64,74</t>
+          <t>-68,4; 62,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 94,83</t>
+          <t>-58,32; 85,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 125,43</t>
+          <t>-46,52; 128,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 100,75</t>
+          <t>-27,91; 96,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 69,37</t>
+          <t>-32,83; 77,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 115,97</t>
+          <t>-21,59; 117,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,88</t>
+          <t>-2,47; 4,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,77</t>
+          <t>-4,51; 1,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,79</t>
+          <t>-0,56; 7,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,75</t>
+          <t>-0,06; 5,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,82</t>
+          <t>0,91; 7,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,78</t>
+          <t>0,89; 7,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,31</t>
+          <t>-0,42; 4,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,29</t>
+          <t>-1,3; 3,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,54</t>
+          <t>1,28; 6,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 177,95</t>
+          <t>-44,37; 147,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 64,19</t>
+          <t>-74,31; 52,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 248,91</t>
+          <t>-13,18; 263,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 674,95</t>
+          <t>-20,17; 715,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,91; 907,62</t>
+          <t>9,21; 1138,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,53; 1083,6</t>
+          <t>17,48; 1011,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 176,29</t>
+          <t>-11,55; 188,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 165,02</t>
+          <t>-33,31; 144,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,69; 292,45</t>
+          <t>20,64; 281,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,11</t>
+          <t>-1,02; 3,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,18</t>
+          <t>-2,3; 1,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,67</t>
+          <t>-0,47; 3,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,02</t>
+          <t>-0,95; 2,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,54</t>
+          <t>-0,81; 2,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,37</t>
+          <t>-0,64; 3,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,42</t>
+          <t>-0,26; 2,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,43</t>
+          <t>-1,34; 1,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,87</t>
+          <t>0,02; 2,94</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 73,41</t>
+          <t>-16,86; 75,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 30,54</t>
+          <t>-40,15; 33,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 87,96</t>
+          <t>-9,0; 91,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 85,0</t>
+          <t>-18,42; 82,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 69,03</t>
+          <t>-15,39; 70,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 93,22</t>
+          <t>-12,52; 101,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 57,89</t>
+          <t>-5,18; 60,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 34,04</t>
+          <t>-24,72; 32,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 69,81</t>
+          <t>1,54; 71,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 0,0</t>
+          <t>-22,79; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 16,83</t>
+          <t>-10,0; 16,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 10,58</t>
+          <t>-15,03; 10,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 19,26</t>
+          <t>-12,1; 17,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 3,05</t>
+          <t>-19,91; 2,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 19,89</t>
+          <t>-11,3; 20,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,39</t>
+          <t>-10,81; 6,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 7,99</t>
+          <t>-11,39; 7,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 13,57</t>
+          <t>-10,38; 12,09</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 405,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 835,16</t>
+          <t>-100,0; 536,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,71</t>
+          <t>-2,05; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,02</t>
+          <t>-4,87; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,11</t>
+          <t>-2,79; 5,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,27</t>
+          <t>-4,44; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,21</t>
+          <t>-6,49; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,37</t>
+          <t>-5,59; 2,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,9</t>
+          <t>-1,89; 5,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,11</t>
+          <t>-4,18; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,8</t>
+          <t>-2,9; 3,05</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 383,42</t>
+          <t>-43,85; 375,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-87,37; 165,45</t>
+          <t>-92,1; 144,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 409,88</t>
+          <t>-60,64; 301,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 199,37</t>
+          <t>-64,37; 189,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 105,13</t>
+          <t>-83,43; 93,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 96,88</t>
+          <t>-77,27; 108,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 155,28</t>
+          <t>-36,18; 188,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 40,85</t>
+          <t>-71,32; 62,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 97,45</t>
+          <t>-50,76; 120,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,88</t>
+          <t>-4,32; 2,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,72</t>
+          <t>-4,32; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,82</t>
+          <t>-4,04; 3,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,97</t>
+          <t>-2,6; 4,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,92</t>
+          <t>-2,32; 4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,64</t>
+          <t>-3,01; 4,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,73</t>
+          <t>-2,42; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,57</t>
+          <t>-2,63; 2,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,4</t>
+          <t>-2,22; 2,71</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 66,83</t>
+          <t>-55,7; 70,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 63,7</t>
+          <t>-55,42; 64,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,8; 66,3</t>
+          <t>-54,69; 76,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 143,29</t>
+          <t>-38,64; 130,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 114,89</t>
+          <t>-37,19; 144,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 103,04</t>
+          <t>-46,59; 126,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 61,5</t>
+          <t>-34,37; 63,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 62,55</t>
+          <t>-38,88; 54,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 56,1</t>
+          <t>-33,53; 71,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,1</t>
+          <t>-0,56; 8,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,7</t>
+          <t>-2,92; 5,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,36</t>
+          <t>-2,18; 7,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,56</t>
+          <t>-6,31; 2,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,78</t>
+          <t>-4,74; 4,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,28</t>
+          <t>-4,86; 5,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,31</t>
+          <t>-1,71; 4,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,48</t>
+          <t>-2,86; 3,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,14</t>
+          <t>-1,75; 4,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 258,15</t>
+          <t>-11,82; 268,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 194,41</t>
+          <t>-43,86; 159,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 210,6</t>
+          <t>-32,23; 218,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,4; 62,21</t>
+          <t>-69,83; 62,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 85,84</t>
+          <t>-55,43; 96,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 128,99</t>
+          <t>-53,8; 127,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 96,31</t>
+          <t>-25,93; 109,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 77,01</t>
+          <t>-36,67; 71,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 117,73</t>
+          <t>-24,28; 106,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,47</t>
+          <t>-2,45; 4,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,42</t>
+          <t>-4,88; 1,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,99</t>
+          <t>-0,3; 8,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,52</t>
+          <t>-0,03; 5,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,25</t>
+          <t>0,72; 7,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,72</t>
+          <t>0,98; 7,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,19</t>
+          <t>-0,2; 4,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,1</t>
+          <t>-1,09; 3,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,63</t>
+          <t>1,21; 6,6</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 147,23</t>
+          <t>-40,29; 178,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,31; 52,54</t>
+          <t>-74,79; 61,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 263,33</t>
+          <t>-12,9; 270,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 715,28</t>
+          <t>-25,93; 646,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,21; 1138,07</t>
+          <t>-0,94; 892,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,48; 1011,53</t>
+          <t>10,28; 963,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 188,91</t>
+          <t>-7,55; 204,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 144,15</t>
+          <t>-29,97; 137,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,64; 281,13</t>
+          <t>30,14; 308,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,1</t>
+          <t>-0,87; 3,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,43</t>
+          <t>-2,45; 1,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,71</t>
+          <t>-0,66; 3,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,94</t>
+          <t>-0,79; 2,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,61</t>
+          <t>-0,99; 2,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,58</t>
+          <t>-0,68; 3,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,55</t>
+          <t>-0,3; 2,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,37</t>
+          <t>-1,09; 1,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,94</t>
+          <t>0,05; 2,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 75,69</t>
+          <t>-15,51; 76,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 33,61</t>
+          <t>-40,44; 27,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 91,84</t>
+          <t>-12,31; 86,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 82,29</t>
+          <t>-15,44; 80,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 70,97</t>
+          <t>-18,85; 79,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 101,38</t>
+          <t>-14,15; 87,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 60,98</t>
+          <t>-4,6; 59,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 32,82</t>
+          <t>-20,54; 33,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,54; 71,86</t>
+          <t>0,85; 69,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 0,0</t>
+          <t>-3,78; 5,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 16,23</t>
+          <t>-6,42; 1,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 10,22</t>
+          <t>-4,89; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 17,69</t>
+          <t>-3,1; 4,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 2,57</t>
+          <t>-4,46; 3,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 20,38</t>
+          <t>-3,48; 4,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 6,74</t>
+          <t>-2,03; 4,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 7,36</t>
+          <t>-4,7; 1,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 12,09</t>
+          <t>-3,07; 2,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>-44,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,15%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>-6,56%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,56; 160,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,27; 45,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,65; 124,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,17; 184,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,01; 166,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,18; 213,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 405,79</t>
+          <t>-35,78; 150,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,66; 38,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 536,44</t>
+          <t>-50,97; 84,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 6,48</t>
+          <t>-2,11; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,99</t>
+          <t>-2,62; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,5</t>
+          <t>-3,08; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,22</t>
+          <t>-4,22; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 2,05</t>
+          <t>-4,38; 2,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 2,56</t>
+          <t>-4,17; 2,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,03</t>
+          <t>-2,34; 2,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,2</t>
+          <t>-2,6; 2,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,05</t>
+          <t>-2,6; 2,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,89%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,77%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,96%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>-2,81%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,85; 375,39</t>
+          <t>-32,49; 153,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,1; 144,02</t>
+          <t>-41,04; 140,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 301,68</t>
+          <t>-45,47; 118,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 189,03</t>
+          <t>-53,47; 68,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,43; 93,8</t>
+          <t>-56,0; 71,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 108,06</t>
+          <t>-52,94; 70,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 188,43</t>
+          <t>-34,32; 61,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 62,21</t>
+          <t>-38,84; 62,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 120,61</t>
+          <t>-38,51; 56,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,93</t>
+          <t>-6,51; 2,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,64</t>
+          <t>-4,76; 3,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,06</t>
+          <t>-5,19; 4,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,77</t>
+          <t>-0,29; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,55</t>
+          <t>-3,38; 4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,34</t>
+          <t>-1,72; 7,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,73</t>
+          <t>-1,79; 4,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,25</t>
+          <t>-2,57; 3,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,71</t>
+          <t>-2,24; 4,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,07%</t>
+          <t>-27,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 70,69</t>
+          <t>-71,84; 64,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 64,78</t>
+          <t>-50,12; 94,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 76,7</t>
+          <t>-57,19; 88,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 130,08</t>
+          <t>-8,18; 241,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 144,41</t>
+          <t>-46,97; 139,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 126,04</t>
+          <t>-27,58; 214,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 63,73</t>
+          <t>-25,04; 100,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 54,92</t>
+          <t>-35,0; 69,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 71,22</t>
+          <t>-30,6; 103,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>3,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,74</t>
+          <t>-0,1; 5,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,15</t>
+          <t>0,89; 6,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,02</t>
+          <t>1,08; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,35</t>
+          <t>-2,43; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,19</t>
+          <t>-4,73; 1,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,31</t>
+          <t>-0,24; 8,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,63</t>
+          <t>-0,26; 4,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,04</t>
+          <t>-0,96; 3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,85</t>
+          <t>1,24; 6,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>148,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>197,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>232,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,22%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-33,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>123,59%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 268,91</t>
+          <t>-17,01; 674,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 159,61</t>
+          <t>6,91; 907,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 218,59</t>
+          <t>13,63; 1131,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 62,17</t>
+          <t>-42,9; 177,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 96,92</t>
+          <t>-71,98; 64,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 127,85</t>
+          <t>-8,97; 254,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 109,37</t>
+          <t>-13,05; 176,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 71,11</t>
+          <t>-24,84; 165,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 106,73</t>
+          <t>24,24; 294,7</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,96</t>
+          <t>-0,95; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,4</t>
+          <t>-1,0; 2,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,37</t>
+          <t>-0,85; 3,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 5,58</t>
+          <t>-0,66; 3,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,21</t>
+          <t>-2,34; 1,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,95</t>
+          <t>-0,48; 3,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,27</t>
+          <t>-0,28; 2,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,15</t>
+          <t>-1,15; 1,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,6</t>
+          <t>-0,15; 2,68</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-33,51%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75,77%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>148,85%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>197,98%</t>
+          <t>-11,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>229,96%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>119,76%</t>
+          <t>26,96%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 178,62</t>
+          <t>-17,93; 85,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,79; 61,27</t>
+          <t>-18,98; 69,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 270,93</t>
+          <t>-16,08; 87,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 646,95</t>
+          <t>-11,32; 73,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 892,23</t>
+          <t>-38,8; 30,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,28; 963,14</t>
+          <t>-8,47; 84,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 204,43</t>
+          <t>-5,8; 57,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 137,45</t>
+          <t>-21,97; 34,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,14; 308,69</t>
+          <t>-3,0; 65,67</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 3,06</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 1,1</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,52</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 2,96</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 2,76</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 3,41</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 2,36</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,36</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 2,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>22,88%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-11,68%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>29,73%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>21,79%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>22,36%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; 76,68</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-40,44; 27,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 86,46</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 80,85</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 79,84</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 87,11</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 59,44</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-20,54; 33,94</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 69,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
